--- a/March'21/03.03.2021/Bank Statement.xlsx
+++ b/March'21/03.03.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Allocation" sheetId="49" r:id="rId4"/>
     <sheet name="Extra Stock" sheetId="50" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="51" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Allocation!$A$1:$W$26</definedName>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="137">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -1738,7 +1739,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2461,6 +2462,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2510,30 +2535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2674,6 +2675,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="??&amp;O龡&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="2"/>
@@ -3129,70 +3134,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="250"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="262"/>
+      <c r="B3" s="269"/>
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
+      <c r="P3" s="269"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="270"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3201,55 +3206,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="254" t="s">
+      <c r="B4" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="248" t="s">
+      <c r="D4" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="248" t="s">
+      <c r="J4" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="263" t="s">
+      <c r="K4" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="265" t="s">
+      <c r="L4" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="267" t="s">
+      <c r="M4" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="269" t="s">
+      <c r="N4" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="271" t="s">
+      <c r="O4" s="254" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="Q4" s="258" t="s">
+      <c r="Q4" s="266" t="s">
         <v>132</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3262,23 +3267,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="253"/>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="266"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="259"/>
+      <c r="A5" s="261"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="255"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="267"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -6214,14 +6219,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6234,6 +6231,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8185,8 +8190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12644,4 +12649,197 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="319" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="320" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="320" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="320" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="320" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="320">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="320" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="320" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="320">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="320" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="320" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="320">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="320" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="320" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="320">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="320" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="320" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="320">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="320" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="320" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="320">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="320" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="320" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="320">
+        <v>120006</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="320"/>
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="320" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="320" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="320">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="320" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="320" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="320">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="320" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="320" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="320">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="320"/>
+      <c r="C16" s="320"/>
+      <c r="D16" s="320"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="320" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="320" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="320">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="320" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="320" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="320">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="320" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="320"/>
+      <c r="D19" s="320">
+        <v>146795</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="140" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>